--- a/171/RAW/AXON_171_paw_version.xlsx
+++ b/171/RAW/AXON_171_paw_version.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>TECHNICAL_NAME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+  <si>
+    <t>ATTRIBUTE NAME</t>
+  </si>
+  <si>
+    <t>TECHNICAL NAME</t>
   </si>
   <si>
     <t>DEFINITION</t>
   </si>
   <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
     <t>BUSINESS LOGIC</t>
   </si>
   <si>
@@ -73,67 +73,52 @@
     <t>VERSION</t>
   </si>
   <si>
-    <t>R_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_SRC_ID</t>
+    <t>COLUMN COMMENTS OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN ID OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN R_DEL_LOAD_ID OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN R_DEL_TMSTMP OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN R_FCLTY_CD OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN R_INS_LOAD_ID OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN R_INS_TMSTMP OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN R_RCRD_STS_CD OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN R_UPD_LOAD_ID OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN R_UPD_TMSTMP OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN SCRIPT OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN TIMESTAMP OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN TIMESTAMP_UTC OF TABLE PAW_VERSION</t>
+  </si>
+  <si>
+    <t>COLUMN VERSION OF TABLE PAW_VERSION</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
     <t>DECIMAL(10,0)</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>COLUMN COMMENTS OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN ID OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_DEL_LOAD_ID OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_DEL_TMSTMP OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_FCLTY_CD OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_INS_LOAD_ID OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_INS_TMSTMP OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_RCRD_STS_CD OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_UPD_LOAD_ID OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_UPD_TMSTMP OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN SCRIPT OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN TIMESTAMP OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN TIMESTAMP_UTC OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN VERSION OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>COLUMN R_LOAD_ID OF TABLE PAW_VERSION</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Raw Layer. This is a Source system identifier in CAVEAU Architecture.</t>
   </si>
 </sst>
 </file>
@@ -491,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -533,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -547,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -561,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -575,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -589,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -603,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -617,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -631,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,10 +630,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -659,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -676,10 +661,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -687,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -701,41 +686,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
